--- a/script/wsh/tools/sb2xls/dst.xlsx
+++ b/script/wsh/tools/sb2xls/dst.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>タイトル行</t>
   </si>
@@ -62,6 +62,27 @@
   </si>
   <si>
     <t>差分</t>
+  </si>
+  <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>10Aa</t>
+  </si>
+  <si>
+    <t>20Bb</t>
+  </si>
+  <si>
+    <t>30Cc</t>
+  </si>
+  <si>
+    <t>40Dd</t>
+  </si>
+  <si>
+    <t>50Ee</t>
+  </si>
+  <si>
+    <t>01A1</t>
   </si>
 </sst>
 </file>
@@ -119,6 +140,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -153,7 +177,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>予想</c:v>
+                  <c:v>テスト</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -183,13 +207,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.35</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -204,7 +228,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>結果</c:v>
+                  <c:v>予想</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -234,13 +258,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.22</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -255,7 +279,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>差分</c:v>
+                  <c:v>結果</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -285,13 +309,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.87</c:v>
+                  <c:v>3.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,11 +330,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102068992"/>
-        <c:axId val="102070528"/>
+        <c:axId val="228211392"/>
+        <c:axId val="228495616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102068992"/>
+        <c:axId val="228211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,7 +344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102070528"/>
+        <c:crossAx val="228495616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -328,7 +352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102070528"/>
+        <c:axId val="228495616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -339,7 +363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102068992"/>
+        <c:crossAx val="228211392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -396,7 +420,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -438,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,7 +497,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -701,15 +725,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,16 +741,19 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -739,17 +766,20 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
         <v>1.35</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>3.22</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1.87</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -762,17 +792,20 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.21</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.33</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -785,13 +818,42 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>0.89</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="H5" s="1">
         <v>-0.11</v>
       </c>
     </row>
@@ -804,7 +866,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -812,7 +874,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,16 +882,19 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -842,13 +907,16 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
         <v>1.35</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>3.22</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1.87</v>
       </c>
     </row>
@@ -861,7 +929,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -869,7 +937,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,16 +945,19 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -899,17 +970,20 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.21</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.33</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -922,13 +996,16 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.89</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>-0.11</v>
       </c>
     </row>
